--- a/sourceData/售后仓库退款单/售后仓库退款单1.xlsx
+++ b/sourceData/售后仓库退款单/售后仓库退款单1.xlsx
@@ -11,103 +11,31 @@
     <sheet name="按销售日期统计" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$A$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
   <si>
     <t>订单编号</t>
   </si>
   <si>
-    <t>售后渠道退款</t>
-  </si>
-  <si>
     <t>售后仓库退款</t>
   </si>
   <si>
-    <t>w1232424</t>
-  </si>
-  <si>
-    <t>w1232425</t>
-  </si>
-  <si>
-    <t>w1232426</t>
-  </si>
-  <si>
-    <t>w1232427</t>
-  </si>
-  <si>
-    <t>w1232428</t>
-  </si>
-  <si>
-    <t>w1232429</t>
-  </si>
-  <si>
-    <t>w1232430</t>
-  </si>
-  <si>
-    <t>w1232431</t>
-  </si>
-  <si>
-    <t>w1232432</t>
-  </si>
-  <si>
-    <t>w1232433</t>
-  </si>
-  <si>
-    <t>w1232434</t>
-  </si>
-  <si>
-    <t>w1232435</t>
-  </si>
-  <si>
-    <t>w1232436</t>
-  </si>
-  <si>
-    <t>w1232437</t>
-  </si>
-  <si>
-    <t>w1232438</t>
-  </si>
-  <si>
-    <t>w1232439</t>
-  </si>
-  <si>
-    <t>w1232440</t>
-  </si>
-  <si>
-    <t>w1232441</t>
-  </si>
-  <si>
-    <t>w1232442</t>
-  </si>
-  <si>
-    <t>w1232443</t>
-  </si>
-  <si>
-    <t>w1232444</t>
-  </si>
-  <si>
-    <t>w1232445</t>
-  </si>
-  <si>
-    <t>w1232446</t>
-  </si>
-  <si>
-    <t>w1232447</t>
-  </si>
-  <si>
-    <t>w1232448</t>
-  </si>
-  <si>
-    <t>w1232449</t>
-  </si>
-  <si>
-    <t>w1232450</t>
+    <t>w1232</t>
+  </si>
+  <si>
+    <t>w1233</t>
+  </si>
+  <si>
+    <t>w1234</t>
+  </si>
+  <si>
+    <t>w1235</t>
   </si>
   <si>
     <t>下单时间</t>
@@ -726,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -746,6 +674,21 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,7 +801,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,7 +831,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,28 +849,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,10 +879,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1372,329 +1318,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="B5" s="4">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B28">
+  <autoFilter ref="A1:A5">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,45 +1392,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1780,13 +1457,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1813,13 +1490,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1846,13 +1523,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1879,13 +1556,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1912,13 +1589,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1945,13 +1622,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1978,13 +1655,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2011,13 +1688,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2044,13 +1721,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -2077,13 +1754,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2110,13 +1787,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -2143,13 +1820,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -2176,13 +1853,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2209,13 +1886,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2242,13 +1919,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2275,13 +1952,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2308,13 +1985,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2341,13 +2018,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2374,13 +2051,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2407,13 +2084,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2440,13 +2117,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2473,13 +2150,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2506,13 +2183,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -2539,13 +2216,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -2572,13 +2249,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2605,13 +2282,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2638,13 +2315,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2671,13 +2348,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2704,13 +2381,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2737,13 +2414,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2770,13 +2447,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2803,13 +2480,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2836,13 +2513,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2869,13 +2546,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2902,13 +2579,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2935,13 +2612,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2968,13 +2645,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3001,13 +2678,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -3034,13 +2711,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -3067,13 +2744,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -3100,13 +2777,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3133,13 +2810,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3166,13 +2843,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3199,13 +2876,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3232,13 +2909,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3265,13 +2942,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -3298,13 +2975,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -3331,13 +3008,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3362,13 +3039,13 @@
         <v>175</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="P50" s="2">
         <v>41</v>
@@ -3376,13 +3053,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3407,13 +3084,13 @@
         <v>32</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="P51" s="2">
         <v>130</v>
@@ -3421,7 +3098,7 @@
     </row>
     <row r="52" spans="9:16">
       <c r="I52" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J52">
         <v>-171</v>
@@ -3433,7 +3110,7 @@
     </row>
     <row r="53" spans="9:10">
       <c r="I53" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="J53" s="3">
         <f>SUM(J2:J52)</f>

--- a/sourceData/售后仓库退款单/售后仓库退款单1.xlsx
+++ b/sourceData/售后仓库退款单/售后仓库退款单1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>订单编号</t>
   </si>
@@ -36,6 +36,54 @@
   </si>
   <si>
     <t>w1235</t>
+  </si>
+  <si>
+    <t>w1236</t>
+  </si>
+  <si>
+    <t>w1237</t>
+  </si>
+  <si>
+    <t>w1238</t>
+  </si>
+  <si>
+    <t>w1239</t>
+  </si>
+  <si>
+    <t>w1240</t>
+  </si>
+  <si>
+    <t>w1241</t>
+  </si>
+  <si>
+    <t>w1242</t>
+  </si>
+  <si>
+    <t>w1243</t>
+  </si>
+  <si>
+    <t>w1244</t>
+  </si>
+  <si>
+    <t>w1245</t>
+  </si>
+  <si>
+    <t>w1246</t>
+  </si>
+  <si>
+    <t>w1247</t>
+  </si>
+  <si>
+    <t>w1248</t>
+  </si>
+  <si>
+    <t>w1249</t>
+  </si>
+  <si>
+    <t>w1250</t>
+  </si>
+  <si>
+    <t>w1251</t>
   </si>
   <si>
     <t>下单时间</t>
@@ -1318,13 +1366,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.8888888888889" customWidth="1"/>
@@ -1368,6 +1416,134 @@
       </c>
       <c r="B5" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1392,45 +1568,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1457,13 +1633,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1490,13 +1666,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1523,13 +1699,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1556,13 +1732,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1589,13 +1765,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1622,13 +1798,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1655,13 +1831,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1688,13 +1864,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1721,13 +1897,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1754,13 +1930,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1787,13 +1963,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -1820,13 +1996,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1853,13 +2029,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1886,13 +2062,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1919,13 +2095,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1952,13 +2128,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1985,13 +2161,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2018,13 +2194,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2051,13 +2227,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2084,13 +2260,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2117,13 +2293,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2150,13 +2326,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2183,13 +2359,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -2216,13 +2392,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -2249,13 +2425,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2282,13 +2458,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2315,13 +2491,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2348,13 +2524,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2381,13 +2557,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2414,13 +2590,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2447,13 +2623,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2480,13 +2656,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2513,13 +2689,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2546,13 +2722,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2579,13 +2755,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2612,13 +2788,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2645,13 +2821,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2678,13 +2854,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -2711,13 +2887,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -2744,13 +2920,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -2777,13 +2953,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2810,13 +2986,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2843,13 +3019,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -2876,13 +3052,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -2909,13 +3085,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -2942,13 +3118,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -2975,13 +3151,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -3008,13 +3184,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3039,13 +3215,13 @@
         <v>175</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="P50" s="2">
         <v>41</v>
@@ -3053,13 +3229,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3084,13 +3260,13 @@
         <v>32</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="P51" s="2">
         <v>130</v>
@@ -3098,7 +3274,7 @@
     </row>
     <row r="52" spans="9:16">
       <c r="I52" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J52">
         <v>-171</v>
@@ -3110,7 +3286,7 @@
     </row>
     <row r="53" spans="9:10">
       <c r="I53" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="J53" s="3">
         <f>SUM(J2:J52)</f>
